--- a/doc/三个业务表的字段比较.xlsx
+++ b/doc/三个业务表的字段比较.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20250" windowHeight="7695"/>
+    <workbookView windowWidth="20490" windowHeight="9390"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet3" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">guanqi:
-可能是原来的machineNo即设备编号。</t>
+是为试剂耗材预留的编号字段</t>
         </r>
       </text>
     </comment>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91">
   <si>
     <t>说明：</t>
   </si>
@@ -149,6 +149,9 @@
   </si>
   <si>
     <t>seq</t>
+  </si>
+  <si>
+    <t>试剂耗材的编号，预留用</t>
   </si>
   <si>
     <t>cattype</t>
@@ -345,12 +348,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -412,11 +415,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -459,26 +457,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -490,14 +488,10 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="7">
@@ -813,11 +807,11 @@
         </a:custGeom>
         <a:gradFill rotWithShape="0">
           <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="BBD5F0"/>
+            </a:gs>
             <a:gs pos="100000">
               <a:srgbClr val="9CBEE0"/>
-            </a:gs>
-            <a:gs pos="0">
-              <a:srgbClr val="BBD5F0"/>
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
@@ -843,8 +837,8 @@
   <sheetPr/>
   <dimension ref="A4:O37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="F39" sqref="F39"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -978,7 +972,7 @@
       <c r="C13" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D13" s="9">
+      <c r="D13" s="8">
         <v>50</v>
       </c>
       <c r="E13" s="8" t="s">
@@ -990,13 +984,13 @@
       <c r="H13" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="I13" s="9">
+      <c r="I13" s="8">
         <v>50</v>
       </c>
       <c r="J13" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="L13" s="11" t="s">
+      <c r="L13" s="10" t="s">
         <v>18</v>
       </c>
       <c r="M13" s="7" t="s">
@@ -1010,7 +1004,7 @@
       </c>
     </row>
     <row r="14" spans="2:15">
-      <c r="B14" s="10" t="s">
+      <c r="B14" s="9" t="s">
         <v>20</v>
       </c>
       <c r="C14" s="7" t="s">
@@ -1022,7 +1016,7 @@
       <c r="E14" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="G14" s="10" t="s">
+      <c r="G14" s="9" t="s">
         <v>22</v>
       </c>
       <c r="H14" s="7" t="s">
@@ -1034,7 +1028,7 @@
       <c r="J14" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="L14" s="11" t="s">
+      <c r="L14" s="10" t="s">
         <v>24</v>
       </c>
       <c r="M14" s="7" t="s">
@@ -1048,19 +1042,21 @@
       </c>
     </row>
     <row r="15" spans="2:15">
-      <c r="B15" s="11" t="s">
+      <c r="B15" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="D15" s="13">
-        <v>50</v>
-      </c>
-      <c r="E15" s="13"/>
-      <c r="G15" s="10" t="s">
+      <c r="C15" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" s="11">
+        <v>50</v>
+      </c>
+      <c r="E15" s="11" t="s">
         <v>27</v>
       </c>
+      <c r="G15" s="9" t="s">
+        <v>28</v>
+      </c>
       <c r="H15" s="7" t="s">
         <v>16</v>
       </c>
@@ -1068,7 +1064,7 @@
         <v>50</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="L15" s="8" t="s">
         <v>15</v>
@@ -1076,7 +1072,7 @@
       <c r="M15" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="N15" s="9">
+      <c r="N15" s="8">
         <v>50</v>
       </c>
       <c r="O15" s="8" t="s">
@@ -1085,57 +1081,57 @@
     </row>
     <row r="16" spans="2:15">
       <c r="B16" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16" s="8">
+        <v>50</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="G16" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="H16" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="I16" s="8">
+        <v>50</v>
+      </c>
+      <c r="J16" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="L16" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="M16" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="N16" s="13">
+        <v>255</v>
+      </c>
+      <c r="O16" s="13" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="2:15">
+      <c r="B17" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17" s="7">
+        <v>50</v>
+      </c>
+      <c r="E17" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="C16" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D16" s="9">
-        <v>50</v>
-      </c>
-      <c r="E16" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="G16" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="H16" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="I16" s="9">
-        <v>50</v>
-      </c>
-      <c r="J16" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="L16" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="M16" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="N16" s="17">
-        <v>255</v>
-      </c>
-      <c r="O16" s="15" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="17" spans="2:15">
-      <c r="B17" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D17" s="7">
-        <v>50</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>28</v>
-      </c>
       <c r="G17" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H17" s="7" t="s">
         <v>14</v>
@@ -1144,24 +1140,24 @@
         <v>11</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="L17" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="M17" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="N17" s="8">
+        <v>50</v>
+      </c>
+      <c r="O17" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="M17" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="N17" s="9">
-        <v>50</v>
-      </c>
-      <c r="O17" s="8" t="s">
-        <v>30</v>
-      </c>
     </row>
     <row r="18" spans="2:15">
-      <c r="B18" s="14" t="s">
-        <v>34</v>
+      <c r="B18" s="12" t="s">
+        <v>35</v>
       </c>
       <c r="C18" s="7" t="s">
         <v>16</v>
@@ -1170,11 +1166,11 @@
         <v>255</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="G18" s="14" t="s">
         <v>36</v>
       </c>
+      <c r="G18" s="12" t="s">
+        <v>37</v>
+      </c>
       <c r="H18" s="7" t="s">
         <v>16</v>
       </c>
@@ -1182,10 +1178,10 @@
         <v>50</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="L18" s="10" t="s">
-        <v>27</v>
+        <v>38</v>
+      </c>
+      <c r="L18" s="9" t="s">
+        <v>28</v>
       </c>
       <c r="M18" s="7" t="s">
         <v>16</v>
@@ -1194,12 +1190,12 @@
         <v>50</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="19" spans="2:15">
-      <c r="B19" s="14" t="s">
-        <v>38</v>
+      <c r="B19" s="12" t="s">
+        <v>39</v>
       </c>
       <c r="C19" s="7" t="s">
         <v>16</v>
@@ -1208,22 +1204,22 @@
         <v>255</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="G19" s="14" t="s">
         <v>40</v>
       </c>
+      <c r="G19" s="12" t="s">
+        <v>41</v>
+      </c>
       <c r="H19" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I19" s="7">
         <v>0</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="M19" s="7" t="s">
         <v>16</v>
@@ -1232,24 +1228,24 @@
         <v>255</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="20" spans="2:15">
-      <c r="B20" s="14" t="s">
-        <v>40</v>
+      <c r="B20" s="12" t="s">
+        <v>41</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D20" s="7">
         <v>0</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="G20" s="14" t="s">
-        <v>34</v>
+        <v>43</v>
+      </c>
+      <c r="G20" s="12" t="s">
+        <v>35</v>
       </c>
       <c r="H20" s="7" t="s">
         <v>16</v>
@@ -1258,24 +1254,24 @@
         <v>255</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M20" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="N20" s="7">
         <v>0</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="21" spans="2:15">
       <c r="B21" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C21" s="7" t="s">
         <v>16</v>
@@ -1284,60 +1280,60 @@
         <v>255</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="G21" s="14" t="s">
         <v>49</v>
       </c>
+      <c r="G21" s="12" t="s">
+        <v>50</v>
+      </c>
       <c r="H21" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I21" s="7">
         <v>0</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L21" s="8" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M21" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="N21" s="9">
+        <v>53</v>
+      </c>
+      <c r="N21" s="8">
         <v>10</v>
       </c>
       <c r="O21" s="8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="22" spans="2:15">
-      <c r="B22" s="14" t="s">
-        <v>49</v>
+      <c r="B22" s="12" t="s">
+        <v>50</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D22" s="7">
         <v>0</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="G22" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="H22" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="I22" s="8">
+        <v>10</v>
+      </c>
+      <c r="J22" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="G22" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="H22" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="I22" s="9">
-        <v>10</v>
-      </c>
-      <c r="J22" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="L22" s="10" t="s">
-        <v>55</v>
+      <c r="L22" s="9" t="s">
+        <v>56</v>
       </c>
       <c r="M22" s="7" t="s">
         <v>16</v>
@@ -1346,12 +1342,12 @@
         <v>50</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="23" spans="2:15">
       <c r="B23" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C23" s="7" t="s">
         <v>14</v>
@@ -1360,10 +1356,10 @@
         <v>11</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="G23" s="10" t="s">
-        <v>55</v>
+        <v>58</v>
+      </c>
+      <c r="G23" s="9" t="s">
+        <v>56</v>
       </c>
       <c r="H23" s="7" t="s">
         <v>16</v>
@@ -1372,24 +1368,24 @@
         <v>50</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="L23" s="10" t="s">
         <v>59</v>
       </c>
+      <c r="L23" s="9" t="s">
+        <v>60</v>
+      </c>
       <c r="M23" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="N23" s="7">
         <v>10</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="24" spans="2:15">
       <c r="B24" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C24" s="7" t="s">
         <v>16</v>
@@ -1398,22 +1394,22 @@
         <v>50</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="G24" s="10" t="s">
-        <v>59</v>
+        <v>63</v>
+      </c>
+      <c r="G24" s="9" t="s">
+        <v>60</v>
       </c>
       <c r="H24" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="I24" s="7">
         <v>10</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M24" s="7" t="s">
         <v>14</v>
@@ -1422,24 +1418,24 @@
         <v>11</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="25" spans="2:15">
       <c r="B25" s="8" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="D25" s="9">
+        <v>53</v>
+      </c>
+      <c r="D25" s="8">
         <v>10</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="G25" s="14" t="s">
-        <v>38</v>
+        <v>54</v>
+      </c>
+      <c r="G25" s="12" t="s">
+        <v>39</v>
       </c>
       <c r="H25" s="7" t="s">
         <v>16</v>
@@ -1448,10 +1444,10 @@
         <v>255</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="M25" s="7" t="s">
         <v>16</v>
@@ -1460,12 +1456,12 @@
         <v>255</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="26" spans="2:15">
-      <c r="B26" s="10" t="s">
-        <v>55</v>
+      <c r="B26" s="9" t="s">
+        <v>56</v>
       </c>
       <c r="C26" s="7" t="s">
         <v>16</v>
@@ -1474,9 +1470,9 @@
         <v>50</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="G26" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="G26" s="10" t="s">
         <v>24</v>
       </c>
       <c r="H26" s="7" t="s">
@@ -1489,7 +1485,7 @@
         <v>25</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="M26" s="7" t="s">
         <v>16</v>
@@ -1498,23 +1494,23 @@
         <v>255</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="27" spans="2:15">
-      <c r="B27" s="10" t="s">
-        <v>59</v>
+      <c r="B27" s="9" t="s">
+        <v>60</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D27" s="7">
         <v>10</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="G27" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="G27" s="10" t="s">
         <v>18</v>
       </c>
       <c r="H27" s="7" t="s">
@@ -1527,7 +1523,7 @@
         <v>25</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="M27" s="7" t="s">
         <v>16</v>
@@ -1536,24 +1532,24 @@
         <v>255</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="28" spans="2:15">
       <c r="B28" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D28" s="7">
         <v>10</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H28" s="7" t="s">
         <v>16</v>
@@ -1562,10 +1558,10 @@
         <v>50</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="M28" s="7" t="s">
         <v>16</v>
@@ -1574,36 +1570,36 @@
         <v>255</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="29" spans="2:15">
       <c r="B29" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D29" s="7">
         <v>0</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H29" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I29" s="7">
         <v>0</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="M29" s="7" t="s">
         <v>16</v>
@@ -1614,32 +1610,32 @@
       <c r="O29" s="7"/>
     </row>
     <row r="30" spans="2:15">
-      <c r="B30" s="11" t="s">
+      <c r="B30" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C30" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="D30" s="16">
-        <v>50</v>
-      </c>
-      <c r="E30" s="15" t="s">
+      <c r="C30" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D30" s="13">
+        <v>50</v>
+      </c>
+      <c r="E30" s="13" t="s">
         <v>25</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H30" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I30" s="7">
         <v>0</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M30" s="7" t="s">
         <v>16</v>
@@ -1648,12 +1644,12 @@
         <v>255</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="31" spans="2:15">
-      <c r="B31" s="14" t="s">
-        <v>83</v>
+      <c r="B31" s="12" t="s">
+        <v>84</v>
       </c>
       <c r="C31" s="7" t="s">
         <v>16</v>
@@ -1662,10 +1658,10 @@
         <v>50</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="M31" s="7" t="s">
         <v>16</v>
@@ -1674,12 +1670,12 @@
         <v>255</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="32" spans="2:15">
       <c r="B32" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C32" s="7" t="s">
         <v>16</v>
@@ -1688,24 +1684,24 @@
         <v>100</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="M32" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="N32" s="7">
         <v>0</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="33" spans="2:15">
       <c r="B33" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C33" s="7" t="s">
         <v>16</v>
@@ -1714,24 +1710,24 @@
         <v>50</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="M33" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="N33" s="7">
         <v>0</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="34" spans="2:5">
       <c r="B34" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C34" s="7" t="s">
         <v>16</v>
@@ -1740,12 +1736,12 @@
         <v>500</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="35" spans="2:5">
       <c r="B35" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C35" s="7" t="s">
         <v>16</v>
@@ -1754,35 +1750,35 @@
         <v>255</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="36" spans="2:5">
       <c r="B36" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D36" s="7">
         <v>0</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="37" spans="2:5">
       <c r="B37" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D37" s="7">
         <v>0</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
